--- a/biology/Médecine/Vomissement_fécaloïde/Vomissement_fécaloïde.xlsx
+++ b/biology/Médecine/Vomissement_fécaloïde/Vomissement_fécaloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vomissement_f%C3%A9calo%C3%AFde</t>
+          <t>Vomissement_fécaloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vomissement fécaloïde (ou vomissement fécal, parfois dit « purée de poix ») est un trouble digestif causé par la remontée de secrétions intestinales dans l'estomac.
 Cette remontée anormale provoque chez le sujet des vomissements dont l'aspect et l'odeur rappellent les matières fécales.
-Ce trouble peut être causé par une occlusion intestinale ou une fistule gastro-colique. Les causes peuvent également être infectieuses[1],[2].
+Ce trouble peut être causé par une occlusion intestinale ou une fistule gastro-colique. Les causes peuvent également être infectieuses,.
 </t>
         </is>
       </c>
